--- a/Player_Role_Analysis.xlsx
+++ b/Player_Role_Analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Role</t>
   </si>
@@ -46,22 +46,13 @@
     <t>Midfielder</t>
   </si>
   <si>
-    <t>Defender</t>
-  </si>
-  <si>
     <t>Total Scoring Attempts</t>
   </si>
   <si>
     <t>Assists</t>
   </si>
   <si>
-    <t>Total Attacking Assists</t>
-  </si>
-  <si>
     <t>Mann-Whitney U Test</t>
-  </si>
-  <si>
-    <t>Significant Difference</t>
   </si>
   <si>
     <t>No Significant Difference</t>
@@ -422,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,25 +450,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.0003351431617481129</v>
+        <v>2.37428105960059E-21</v>
       </c>
       <c r="D2">
-        <v>7.73223277017056E-05</v>
+        <v>0.007540231198144633</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>247</v>
+        <v>529.5</v>
       </c>
       <c r="G2">
-        <v>0.005571619703177248</v>
+        <v>0.1665127101692505</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -485,25 +476,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1.372417395097208E-24</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>1.113818151011151E-06</v>
-      </c>
-      <c r="D3">
-        <v>0.0006056095303831403</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3">
-        <v>117</v>
+        <v>528</v>
       </c>
       <c r="G3">
-        <v>0.09758006896551449</v>
+        <v>0.4786314771102339</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,77 +502,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3.143419435674294E-07</v>
+        <v>5.809913120250159E-20</v>
       </c>
       <c r="D4">
-        <v>0.0003084341086133703</v>
+        <v>0.001350752850929433</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>231</v>
+        <v>483</v>
       </c>
       <c r="G4">
-        <v>0.04605969615807712</v>
+        <v>0.9534354882045731</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5">
-        <v>3.316407543742691E-06</v>
-      </c>
-      <c r="D5">
-        <v>1.251200436632311E-05</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>245</v>
-      </c>
-      <c r="G5">
-        <v>0.01211977638200408</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>4.742540949209213E-06</v>
-      </c>
-      <c r="D6">
-        <v>3.671623733130143E-06</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>147.5</v>
-      </c>
-      <c r="G6">
-        <v>0.0477786932019156</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
